--- a/测试大模型/qwq-32b/测试新.xlsx
+++ b/测试大模型/qwq-32b/测试新.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="393">
   <si>
     <t>题号</t>
   </si>
@@ -2287,16 +2287,64 @@
     <t>6 x Cos[x] - x^3 Cos[x] - 6 Sin[x] + 3 x^2 Sin[x]</t>
   </si>
   <si>
+    <t>-x^3 Cos[x] + 3x^2 Sin[x] +6x Cos[x] -6 Sin[x]</t>
+  </si>
+  <si>
+    <t>-x^3 Cos[x] + 3 x^2 Sin[x] + 6 x Cos[x] - 6 Sin[x]</t>
+  </si>
+  <si>
+    <t>-x^3 Cos[x] + 3x^2 Sin[x] + 6x Cos[x] - 6 Sin[x]</t>
+  </si>
+  <si>
+    <t>- x^3 Cos[x] + 3 x^2 Sin[x] + 6 x Cos[x] - 6 Sin[x]</t>
+  </si>
+  <si>
+    <t>-x^3 Cos[x] + 3 x^2 Sin[x] + 6 x Cos[x] -6 Sin[x]</t>
+  </si>
+  <si>
+    <t>-x^3 Cos[x] +3 x^2 Sin[x] +6 x Cos[x] -6 Sin[x]</t>
+  </si>
+  <si>
     <t>x Cos[x] Sin[x]</t>
   </si>
   <si>
     <t>-(x/4) + 1/4 Cos[x] Sin[x] + 1/2 x Sin[x]^2</t>
   </si>
   <si>
+    <t>-(x/4) Cos[2x] + (1/8) Sin[2x]</t>
+  </si>
+  <si>
+    <t>-(1/4) x Cos[2 x] + 1/8 Sin[2 x]</t>
+  </si>
+  <si>
+    <t>-x/4 Cos[2x] + (1/8) Sin[2x]</t>
+  </si>
+  <si>
+    <t>- (x Cos[2x])/4 + Sin[2x]/8</t>
+  </si>
+  <si>
+    <t>- (x/4) Cos[2 x] + Sin[2 x]/8</t>
+  </si>
+  <si>
+    <t>- (x/4) Cos[2x] + (1/8) Sin[2x]</t>
+  </si>
+  <si>
+    <t>-x/4 Cos[2x] + 1/8 Sin[2x]</t>
+  </si>
+  <si>
+    <t>-1/4 x Cos[2x] + 1/8 Sin[2x]</t>
+  </si>
+  <si>
     <t>Log[x]^2</t>
   </si>
   <si>
     <t>2 x - 2 x Log[x] + x Log[x]^2</t>
+  </si>
+  <si>
+    <t>x Log[x]^2 - 2x Log[x] + 2x</t>
+  </si>
+  <si>
+    <t>x Log[x]^2 - 2 x Log[x] + 2 x</t>
   </si>
   <si>
     <t>x Log[x]^2</t>
@@ -3687,7 +3735,7 @@
   <dimension ref="A1:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5492,14 +5540,30 @@
       <c r="C37" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
+      <c r="D37" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>268</v>
+      </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
@@ -5518,19 +5582,35 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
+        <v>270</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>278</v>
+      </c>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
@@ -5549,19 +5629,35 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+        <v>280</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>282</v>
+      </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
@@ -5580,10 +5676,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -5611,10 +5707,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -5642,10 +5738,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -5673,10 +5769,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -5704,10 +5800,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -5735,10 +5831,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -5766,10 +5862,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -5797,10 +5893,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -5828,10 +5924,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -5859,10 +5955,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -5890,10 +5986,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -5921,10 +6017,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -5952,10 +6048,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -5981,10 +6077,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -6010,10 +6106,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -6039,10 +6135,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -6068,10 +6164,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -6097,10 +6193,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -6126,10 +6222,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -6155,10 +6251,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -6184,10 +6280,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -6213,10 +6309,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -6242,10 +6338,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -6271,10 +6367,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -6300,10 +6396,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
@@ -6329,10 +6425,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -6358,10 +6454,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -6387,10 +6483,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -6416,10 +6512,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -6445,10 +6541,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -6474,10 +6570,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -6503,10 +6599,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
@@ -6532,10 +6628,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
@@ -6561,10 +6657,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -6590,10 +6686,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -6619,10 +6715,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -6648,10 +6744,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
@@ -6677,10 +6773,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -6706,10 +6802,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -6735,10 +6831,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
@@ -6764,10 +6860,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
@@ -6793,10 +6889,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
@@ -6822,10 +6918,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
@@ -6851,10 +6947,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
@@ -6880,10 +6976,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
@@ -6909,10 +7005,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
@@ -6938,10 +7034,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
@@ -6967,10 +7063,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
@@ -6996,10 +7092,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
@@ -7025,10 +7121,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
@@ -7054,10 +7150,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
@@ -7083,10 +7179,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
@@ -7112,10 +7208,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
@@ -7141,10 +7237,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
@@ -7170,10 +7266,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>

--- a/测试大模型/qwq-32b/测试新.xlsx
+++ b/测试大模型/qwq-32b/测试新.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="560">
   <si>
     <t>题号</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">嗯，我现在要解这个积分：∫√(2x + 1) dx。啊，好的，首先我得先理解这道题目的积分对象是什么样的函数。题目里给出的是Sqrt[2x + 1]，也就是平方根里的线性函数。这应该是一个不定积分，所以结果会有一个常数C加上去。但用户可能只需要表达式主体，常数部分可能可以省略或者明确写出。
 首先，我需要分析这个积分的基本特征，可能会采用什么方法来解决。常见的积分方法比如换元法、分部积分等等。这里被积函数是一个平方根函数，里面是关于x的一次式，所以可能适合用换元法来简化形式。这时候应该考虑代换掉里面的线性函数，让积分变得更简单。
 比如，假设令u = 2x + 1，这样的话，dx就可以用du表达。因为du/dx就是2，所以dx = du/2。这样原来的积分就被转化为∫√u * (du/2)，这样积分起来就容易了。这可能是一个可行的路线。
@@ -234,6 +240,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">好的，我现在要解决的是求函数Sqrt[2x + 1]关于z的不定积分。不过，这里有个疑问，题目中的积分变量是z吗？因为被积函数里面是关于x的表达式。可能题目可能有打字错误，或者需要确认。假设题目意图是求关于x的不定积分的话，那就处理。如果是求关于z，那么可能被积函数中的变量有问题。先假设为x的情况，可能用户写错了变量，或者题目确实如此，比如函数Sqrt[2x+1]作为关于z的常函数？不过这不太可能，可能题目应该是关于x的积分。这里先假设题目是求关于x的不定积分，先这样处理。
 首先，我需要分析积分表达式：∫√(2x + 1) dx。对于这个积分，基本的解法可能用代换法，也就是u-substitution。比如令u = 2x +1，那么du/dx=2，即du=2dx，这样dx = du/2。替换进去的话，积分就转化为积分√u乘以 (du/2)，然后计算这个积分。之后再换回变量x即可。
 接下来详细分步骤：
@@ -285,6 +297,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">嗯，我现在要计算的是关于z的积分，对吗？等等题目里写的是关于z的不定积分，可是积分表达式是Sqrt[2*x + 1]，这里是不是有什么问题呢？可能题目有误吧，因为积分变量应该是对表达式中的变量，而题目里写的变量是z，但积分表达式中的变量是x。这可能是用户写错了。暂时假设题目中的积分变量x实际上是z？或者可能我需要先确认这一点。
 假设题目确实是要对Sqrt[2*x + 1]关于x积分，可能题目里的变量写错了，或者原题可能本来是要求关于x的。如果是这样的话，那我需要重新考虑解法。不过用户的问题描述中明确说是“关于z的不定积分”，但表达式是关于x的平方根。这可能有问题，需要用户澄清。但可能只是题目中的变量名有误，比如原表达式应该是Sqrt[2*z + 1]？或者用户可能想让我把变量视为z？
 或者，可能用户将表达式中的变量x当成了积分变量，但题目中说的应该是关于x。这时候可能需要继续按照用户给出的表达式进行积分，尽管看起来有矛盾。或者，是否存在可能是，表达式中的变量其实是z，而用户输入的时候有笔误？
@@ -449,6 +467,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>嗯，用户让我计算的是∫x²√(x+1) dx的不定积分。上次他们问的是√(2x+1)，我用了简单的换元法就能解决，但这次被积函数变成了x²乘以平方根，可能需要更复杂的方法。首先得分析这个积分的基本特征和解法策略。
 首先，我想到积分里面有一个多项式乘以一个根号函数，这可能需要分部积分法或者某种代换。分部积分法通常适用于两个函数相乘的情况，而这里虽然看起来是多项式和根号，但可能更合适的还是换元法，或者两者的结合？
 让我先尝试换元。根号里的x+1，所以令u = x+1，这样可能简化积分。这样的话，x = u -1，dx = du。于是原式中的x²可以表示为(u-1)²，这样整个被积函数变成 (u-1)² * √u 的积分。这或许可以展开然后逐项积分，可能比较直接？
@@ -656,6 +680,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">好的，我现在要解决这个积分问题：计算x²乘以√(x + 1)关于x的不定积分。首先，我得仔细分析这个积分的基本特征，然后选择合适的解法策略。
 首先，题目中的积分是x²乘以√(x + 1)，也就是x²乘以根号(x+1)，也就是x²*(x+1)^(1/2)的形式。观察这个被积函数，它的结构包含多项式和平方根函数的乘积，这样的积分通常可能需要用分部积分法或者换元法来处理。
 首先考虑换元法。平方根中的x+1可以做变量替换，让u = x + 1，这样dx = du，x = u -1。这样的话，原式可以转换成x²乘以√u。不过，x的平方在这里可能会变得复杂，因为x = u-1，所以x²就变成(u-1)^2。展开之后再乘以√u，可能会展开成多项式项，这样或许可以逐项积分。这种可能性看起来不错，但需要具体试试看。
@@ -1381,6 +1411,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">嗯，用户这次要计算的是积分 ∫x√(1 + x²) dx。首先我需要分析这个积分的基本特征。看起来被积函数是x乘以√(1 + x²)，可能需要使用代换法来简化。
 首先，我想到可能用u代换法，因为被积函数中的√(1 + x²)和x的结构看起来像是导数相关。让我试一下代换的方法。设u = 1 + x²，那么du/dx = 2x，也就是du = 2x dx。这样的话，x dx 就等于 du/2。那么原积分中的x dx部分就可以用du来代替，而√u则是剩下的部分。
 接下来，代入之后积分式变成∫√u * (du/2)。这看起来可以很容易地积分。积分之后再代回原来的变量x，应该能得到结果。不过我需要详细计算每一步，确保没有错误。
@@ -1451,6 +1487,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">嗯，我现在需要计算的是这个不定积分：∫x √(1 + x²) dx。首先，我得仔细分析一下被积函数的结构。看起来被积函数是x乘以√(1+x²)，也就是x的平方加上1的平方根。这时候可能要考虑用代换法或者分部积分法。
 首先，代换法应该比较合适。因为这里有一个复合函数√(1 + x²)，而外面还有一个x，这让我想到可能通过设u = 1 + x²来简化。因为如果这样的话，du/dx就是2x，而被积函数正好有一个x dx项，可以被吸收掉。不过现在x只是单独的一个x，所以可能需要调整一下。
 让我试一下代换的方法。假设令u = 1 + x²，那么du/dx = 2x，即du = 2x dx。而原式里的积分是x√(u) dx，这时候可以重新组织一下变量。如果我能把x dx表示成du/2，那么剩下的就是√u乘以du/2的形式，这样积分就变得简单了。
@@ -1662,6 +1704,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">嗯，我现在需要解决的积分问题是计算关于x的不定积分：∫x(-1 + x²)^9 dx。首先，我得仔细分析这个问题，看看用什么方法来解比较合适。
 首先，观察被积函数的结构，是x乘以(-1 +x²)的9次方。看起来，这里可能有代换法的适用空间。因为如果我能找到一个合适的代换，让积分变得简单的话，可能就不用用分部积分或者更复杂的方法了。
 让我想想，代换法的关键是找到u的导数存在于积分中的其他部分。这里，注意到x²的导数是2x，而积分中有x dx，所以可能可以设u = -1 +x²，这样du/dx就是2x，也就是说，x dx是du/(2)。这样的话，原来的积分中的x dx部分就可以用du/2来代替，而剩下的因子(-1 +x²)^9也就是u^9。这样的话，整个积分应该可以转化为u的积分，然后积分完再换回来。
@@ -2353,40 +2401,133 @@
     <t>x^2/4 - 1/2 x^2 Log[x] + 1/2 x^2 Log[x]^2</t>
   </si>
   <si>
+    <t>(1/2)x^2 Log[x]^2 - (1/2)x^2 Log[x] + (1/4)x^2</t>
+  </si>
+  <si>
+    <t>x^2/2 Log[x]^2 - x^2/2 Log[x] + x^2/4</t>
+  </si>
+  <si>
+    <t>(x^2/2) Log[x]^2 - (x^2/2) Log[x] + x^2/4</t>
+  </si>
+  <si>
+    <t>1/2 x^2 Log[x]^2 - 1/2 x^2 Log[x] + 1/4 x^2</t>
+  </si>
+  <si>
     <t>E^x x^2</t>
   </si>
   <si>
     <t>2 E^x - 2 E^x x + E^x x^2</t>
   </si>
   <si>
+    <t>x^2 E^x - 2x E^x + 2 E^x</t>
+  </si>
+  <si>
+    <t>x^2 E^x - 2 x E^x + 2 E^x</t>
+  </si>
+  <si>
+    <t>E^x (x^2 - 2x + 2)</t>
+  </si>
+  <si>
+    <t>E^x (x^2 - 2 x + 2)</t>
+  </si>
+  <si>
     <t>E^(-2 x) x^2</t>
   </si>
   <si>
     <t>-(1/4) E^(-2 x) - 1/2 E^(-2 x) x - 1/2 E^(-2 x) x^2</t>
   </si>
   <si>
+    <t>- (1/2) x^2 E^(-2x) - (1/2) x E^(-2x) - (1/4) E^(-2x)</t>
+  </si>
+  <si>
+    <t>-E^(-2 x) (x^2/2 + x/2 + 1/4)</t>
+  </si>
+  <si>
+    <t>-E^(-2x) (2x^2 + 2x + 1)/4</t>
+  </si>
+  <si>
+    <t>-x^2/(2) E^(-2x) - x/(2) E^(-2x) - 1/4 E^(-2x)</t>
+  </si>
+  <si>
+    <t>- (x^2/2) E^(-2x) - (x/2) E^(-2x) - (1/4) E^(-2x)</t>
+  </si>
+  <si>
+    <t>-(x^2/2) E^(-2x) - (x/2) E^(-2x) - 1/4 E^(-2x)</t>
+  </si>
+  <si>
+    <t>-1/2 x^2 E^(-2 x) - 1/2 x E^(-2 x) - 1/4 E^(-2 x)</t>
+  </si>
+  <si>
+    <t>-E^(-2x) (1/2 x^2 + 1/2 x + 1/4)</t>
+  </si>
+  <si>
     <t>(3 + 5 x)/(-3 + 2 x + x^2)</t>
   </si>
   <si>
     <t>2 Log[1 - x] + 3 Log[3 + x]</t>
   </si>
   <si>
+    <t>3 Log[Abs[x + 3]] + 2 Log[Abs[x - 1]]</t>
+  </si>
+  <si>
+    <t>2 Log[-1 + x] + 3 Log[3 + x]</t>
+  </si>
+  <si>
+    <t>3 Log[x + 3] + 2 Log[x - 1]</t>
+  </si>
+  <si>
     <t>(-1 + 5 x + 2 x^2)/(-2 x + x^2 + x^3)</t>
   </si>
   <si>
     <t>2 Log[1 - x] + Log[x]/2 - 1/2 Log[2 + x]</t>
   </si>
   <si>
+    <t>(1/2) Log[Abs[x]] + 2 Log[Abs[x - 1]] - (1/2) Log[Abs[x + 2]]</t>
+  </si>
+  <si>
+    <t>(1/2) Log[x] + 2 Log[-1 + x] - (1/2) Log[2 + x]</t>
+  </si>
+  <si>
+    <t>(1/2) Log[Abs[x]] - (1/2) Log[Abs[x + 2]] + 2 Log[Abs[x - 1]]</t>
+  </si>
+  <si>
+    <t>1/2 Log[x] - 1/2 Log[x + 2] + 2 Log[x - 1]</t>
+  </si>
+  <si>
     <t>(3 + 2 x + x^2)/((-1 + x) (1 + x)^2)</t>
   </si>
   <si>
     <t>1/(1 + x) + 3/2 Log[1 - x] - 1/2 Log[1 + x]</t>
   </si>
   <si>
+    <t>(3/2) Log[Abs[x - 1]] - (1/2) Log[Abs[x + 1]] + 1/(x + 1)</t>
+  </si>
+  <si>
+    <t>(3/2) Log[-1 + x] - (1/2) Log[1 + x] + 1/(1 + x)</t>
+  </si>
+  <si>
+    <t>3/2 Log[x - 1] - 1/2 Log[x + 1] + 1/(x + 1)</t>
+  </si>
+  <si>
     <t>(-2 + 2 x + 3 x^2)/(-1 + x^3)</t>
   </si>
   <si>
     <t>(4 ArcTan[(1 + 2 x)/Sqrt[3]])/Sqrt[3] + Log[1 - x^3]</t>
+  </si>
+  <si>
+    <t>Log[Abs[x - 1]] + Log[Abs[x^2 + x + 1]] + (4/Sqrt[3]) ArcTan[(2x + 1)/Sqrt[3]]</t>
+  </si>
+  <si>
+    <t>Log[-1 + x] + Log[1 + x + x^2] + (4/Sqrt[3]) ArcTan[(1 + 2 x)/Sqrt[3]]</t>
+  </si>
+  <si>
+    <t>Log[Abs[x - 1]] + Log[Abs[x^2 + x + 1]] + (4/Sqrt[3]) ArcTan[(2 x + 1)/Sqrt[3]]</t>
+  </si>
+  <si>
+    <t>Log[x - 1] + Log[x^2 + x + 1] + (4/Sqrt[3]) ArcTan[(2 x + 1)/Sqrt[3]]</t>
+  </si>
+  <si>
+    <t>Log[Abs[x - 1]] + Log[x^2 + x + 1] + (4/Sqrt[3]) ArcTan[(2x + 1)/Sqrt[3]]</t>
   </si>
   <si>
     <t>(2 - x + 2 x^2 - x^3 + x^4)/((-1 + x) (2 + x^2)^2)</t>
@@ -2396,54 +2537,177 @@
  1/3 Log[2 + x^2]</t>
   </si>
   <si>
+    <t>-(1/3) Log[Abs[x - 1]] - (1/3) Log[2 + x^2] + (Sqrt[2]/6) ArcTan[x/Sqrt[2]] - 1/(2 (2 + x^2))</t>
+  </si>
+  <si>
+    <t>(1/3) Log[-1 + x] + (1/3) Log[2 + x^2] - (1/(3 Sqrt[2])) ArcTan[x/Sqrt[2]] + 1/(2 (2 + x^2))</t>
+  </si>
+  <si>
+    <t>(1/3) Log[Abs[x - 1]] + (1/3) Log[Abs[x^2 + 2]] - (1/(3 Sqrt[2])) ArcTan[x/Sqrt[2]] + 1/(2 (x^2 + 2))</t>
+  </si>
+  <si>
+    <t>1/3 Log[x - 1] + 1/3 Log[x^2 + 2] - (1/(3 Sqrt[2])) ArcTan[x/Sqrt[2]] + 1/(2 (x^2 + 2))</t>
+  </si>
+  <si>
+    <t>超时</t>
+  </si>
+  <si>
+    <t>(1/3) Log[Abs[x - 1]] + (1/3) Log[x^2 + 2] - (1/(3 Sqrt[2])) ArcTan[x/Sqrt[2]] + 1/(2 (x^2 + 2))</t>
+  </si>
+  <si>
+    <t>-(1/3) Log[Abs[1 - x]] - (1/3) Log[x^2 + 2] + (1/(3*Sqrt[2])) ArcTan[x/Sqrt[2]] - 1/(2 (x^2 + 2))</t>
+  </si>
+  <si>
     <t>(3 + 2 x)/((-2 + x) (5 + x))</t>
   </si>
   <si>
     <t>Log[2 - x] + Log[5 + x]</t>
   </si>
   <si>
+    <t>Log[Abs[x - 2]] + Log[Abs[x + 5]]</t>
+  </si>
+  <si>
+    <t>Log[-2 + x] + Log[5 + x]</t>
+  </si>
+  <si>
+    <t>Log[x - 2] + Log[x + 5]</t>
+  </si>
+  <si>
     <t>x/((1 + x) (2 + x) (3 + x))</t>
   </si>
   <si>
     <t>-(1/2) Log[1 + x] + 2 Log[2 + x] - 3/2 Log[3 + x]</t>
   </si>
   <si>
+    <t>-(1/2) Log[Abs[1 + x]] + 2 Log[Abs[2 + x]] - (3/2) Log[Abs[3 + x]]</t>
+  </si>
+  <si>
+    <t>-1/2 Log[1 + x] + 2 Log[2 + x] - (3/2) Log[3 + x]</t>
+  </si>
+  <si>
+    <t>-1/(2) Log[Abs[x + 1]] + 2 Log[Abs[x + 2]] - (3/2) Log[Abs[x + 3]]</t>
+  </si>
+  <si>
+    <t>-1/2 Log[x + 1] + 2 Log[x + 2] - (3/2) Log[x + 3]</t>
+  </si>
+  <si>
+    <t>-(1/2) Log[Abs[x + 1]] + 2 Log[Abs[x + 2]] - (3/2) Log[Abs[x + 3]]</t>
+  </si>
+  <si>
+    <t>-1/2 Log[Abs[x + 1]] + 2 Log[Abs[x + 2]] - 3/2 Log[Abs[x + 3]]</t>
+  </si>
+  <si>
     <t>x/(2 - 3 x + x^3)</t>
   </si>
   <si>
     <t>1/(3 (1 - x)) + 2/9 Log[1 - x] - 2/9 Log[2 + x]</t>
   </si>
   <si>
+    <t>2/9 Log[Abs[x - 1]] - 1/(3 (-1 + x)) - 2/9 Log[Abs[2 + x]]</t>
+  </si>
+  <si>
+    <t>(2/9) Log[-1 + x] - 1/(3 (-1 + x)) - (2/9) Log[2 + x]</t>
+  </si>
+  <si>
+    <t>(2/9) Log[Abs[x - 1]] - 1/(3 (x - 1)) - (2/9) Log[Abs[x + 2]]</t>
+  </si>
+  <si>
+    <t>(2/9) Log[x - 1] - 1/(3 (x - 1)) - (2/9) Log[x + 2]</t>
+  </si>
+  <si>
+    <t>-2 Log[Abs[x - 1]] + 1/(x - 1) + 2 Log[Abs[x - 2]]</t>
+  </si>
+  <si>
     <t>(-6 + 2 x + x^4)/(-2 x + x^2 + x^3)</t>
   </si>
   <si>
     <t>-x + x^2/2 - Log[1 - x] + 3 Log[x] + Log[2 + x]</t>
   </si>
   <si>
+    <t>(1/2) x^2 - x + 3 Log[Abs[x]] - Log[Abs[-1 + x]] + Log[Abs[2 + x]]</t>
+  </si>
+  <si>
+    <t>(x^2)/2 - x + 3 Log[Abs[x]] + Log[Abs[2 + x]] - Log[Abs[-1 + x]]</t>
+  </si>
+  <si>
+    <t>(x^2)/2 - x + 3 Log[Abs[x]] - Log[Abs[x - 1]] + Log[Abs[x + 2]]</t>
+  </si>
+  <si>
+    <t>1/2 x^2 - x + 3 Log[x] - Log[x - 1] + Log[x + 2]</t>
+  </si>
+  <si>
+    <t>1/2 x^2 - x + 3 Log[Abs[x]] - Log[Abs[x - 1]] + Log[Abs[x + 2]]</t>
+  </si>
+  <si>
+    <t>(1/2) x^2 - x + 3 Log[Abs[x]] - Log[Abs[x - 1]] + Log[Abs[x + 2]]</t>
+  </si>
+  <si>
+    <t>(x^2)/2 - x + 3 Log[Abs[x]] + Log[Abs[x + 2]] - Log[Abs[x - 1]]</t>
+  </si>
+  <si>
+    <t>(1/2)x^2 - x + 3 Log[Abs[x]] + Log[Abs[x + 2]] - Log[Abs[x - 1]]</t>
+  </si>
+  <si>
     <t>Log[t]/(1 + t)</t>
   </si>
   <si>
     <t>Log[t] Log[1 + t] + PolyLog[2, -t]</t>
   </si>
   <si>
+    <t>Log[t] Log[1 + t] - PolyLog[2, -t]</t>
+  </si>
+  <si>
+    <t>Log[t]*Log[1 + t] + PolyLog[2, -t]</t>
+  </si>
+  <si>
     <t>1/Log[t]</t>
   </si>
   <si>
     <t>LogIntegral[t]</t>
   </si>
   <si>
+    <t>ExpIntegralEi[Log[t]]</t>
+  </si>
+  <si>
     <t>1/Log[t]^2</t>
   </si>
   <si>
     <t>-(t/Log[t]) + LogIntegral[t]</t>
   </si>
   <si>
+    <t>-t/Log[t] + ExpIntegralEi[Log[t]]</t>
+  </si>
+  <si>
+    <t>ExpIntegralEi[Log[t]] - t/Log[t]</t>
+  </si>
+  <si>
+    <t>-t/Log[t] + LogIntegral[t]</t>
+  </si>
+  <si>
+    <t>- t/Log[t] + ExpIntegralEi[Log[t]]</t>
+  </si>
+  <si>
     <t>Log[t]^(-1 - n)</t>
   </si>
   <si>
     <t>-Gamma[-n, -Log[t]] (-Log[t])^n Log[t]^-n</t>
   </si>
   <si>
+    <t>ExpIntegralEi[Log[t]] - Sum[t/(k! (Log[t]^(n + 1 - k))), {k, 0, n}]</t>
+  </si>
+  <si>
+    <t>(-1)^(n + 1) Gamma[-n, -Log[t]]</t>
+  </si>
+  <si>
+    <t>(-1)^(-n - 1) Gamma[-n, -Log[t]]</t>
+  </si>
+  <si>
+    <t>Sum[(-1)^k t/( (k - 1)! Log[t]^k ), {k, 1, n+1}] + (-1)^(n+1) n! ExpIntegralEi[Log[t]]</t>
+  </si>
+  <si>
+    <t>ExpIntegralEi[Log[t]] - Sum[ (-1)^(k - 1) t/(k! Log[t]^k), {k, 1, n}]</t>
+  </si>
+  <si>
     <t>E^t/t</t>
   </si>
   <si>
@@ -2462,46 +2726,142 @@
     <t>-(E^t/t) + ExpIntegralEi[t]</t>
   </si>
   <si>
+    <t>-Exp[t]/t + ExpIntegralEi[t]</t>
+  </si>
+  <si>
+    <t>ExpIntegralEi[t] - E^t/t</t>
+  </si>
+  <si>
+    <t>-E^t/t + ExpIntegralEi[t]</t>
+  </si>
+  <si>
     <t>E^(1/t)</t>
   </si>
   <si>
     <t>E^(1/t) t - ExpIntegralEi[1/t]</t>
   </si>
   <si>
+    <t>t Exp[1/t] - ExpIntegralEi[1/t]</t>
+  </si>
+  <si>
+    <t>E^(1/t)*t - ExpIntegralEi[1/t]</t>
+  </si>
+  <si>
+    <t>t E^(1/t) - ExpIntegralEi[1/t]</t>
+  </si>
+  <si>
     <t>E^-t/(-1 - a + t)</t>
   </si>
   <si>
     <t>E^(-1 - a) ExpIntegralEi[1 + a - t]</t>
   </si>
   <si>
+    <t>Exp[-a - 1] ExpIntegralEi[a + 1 - t]</t>
+  </si>
+  <si>
+    <t>E^(-(a + 1)) ExpIntegralEi[a + 1 - t]</t>
+  </si>
+  <si>
+    <t>E^(-a - 1)*ExpIntegralEi[a + 1 - t]</t>
+  </si>
+  <si>
+    <t>Exp[-(1 + a)] * ExpIntegralEi[a + 1 - t]</t>
+  </si>
+  <si>
+    <t>-E^(-a - 1) ExpIntegralEi[t - a - 1]</t>
+  </si>
+  <si>
+    <t>E^(-1 - a) ExpIntegralEi[a + 1 - t]</t>
+  </si>
+  <si>
     <t>(E^t^2 t)/(1 + t^2)</t>
   </si>
   <si>
     <t>ExpIntegralEi[1 + t^2]/(2 E)</t>
   </si>
   <si>
+    <t>E^(-1) ExpIntegralEi[1 + t^2]/2</t>
+  </si>
+  <si>
+    <t>(ExpIntegralEi[1 + t^2])/(2 E)</t>
+  </si>
+  <si>
+    <t>ExpIntegralEi[t^2 + 1]/(2 E)</t>
+  </si>
+  <si>
+    <t>(E^(-1)/2) ExpIntegralEi[t^2 + 1]</t>
+  </si>
+  <si>
+    <t>(ExpIntegralEi[t^2 + 1])/(2 E)</t>
+  </si>
+  <si>
     <t>E^t/(1 + t)^2</t>
   </si>
   <si>
     <t>-(E^t/(1 + t)) + ExpIntegralEi[1 + t]/E</t>
   </si>
   <si>
+    <t>-Exp[t]/(1 + t) + ExpIntegralEi[t + 1]/E</t>
+  </si>
+  <si>
+    <t>-E^t/(1 + t) + ExpIntegralEi[1 + t]/E</t>
+  </si>
+  <si>
+    <t>-E^t/(1 + t) + ExpIntegralEi[t + 1]/E</t>
+  </si>
+  <si>
+    <t>-E^t/(1 + t) + ExpIntegralEi[1 + t]</t>
+  </si>
+  <si>
     <t>E^t Log[1 + t]</t>
   </si>
   <si>
     <t>-(ExpIntegralEi[1 + t]/E) + E^t Log[1 + t]</t>
   </si>
   <si>
+    <t>E^t Log[1 + t] - ExpIntegralEi[1 + t]/E</t>
+  </si>
+  <si>
+    <t>E^t Log[1 + t] - ExpIntegralEi[t + 1]/E</t>
+  </si>
+  <si>
+    <t>E^t*Log[1 + t] - ExpIntegralEi[1 + t]/E</t>
+  </si>
+  <si>
     <t>E^(2 t)/(-1 + t)</t>
   </si>
   <si>
     <t>E^2 ExpIntegralEi[-2 (1 - t)]</t>
   </si>
   <si>
+    <t>Exp[2] ExpIntegralEi[2 (-1 + t)]</t>
+  </si>
+  <si>
+    <t>E^2 ExpIntegralEi[2 (-1 + t)]</t>
+  </si>
+  <si>
+    <t>E^2 ExpIntegralEi[2 (t - 1)]</t>
+  </si>
+  <si>
     <t>E^(2 x)/(2 - 3 x + x^2)</t>
   </si>
   <si>
     <t>E^4 ExpIntegralEi[-4 + 2 x] - E^2 ExpIntegralEi[-2 + 2 x]</t>
+  </si>
+  <si>
+    <t>Exp[4] ExpIntegralEi[2 (-2 + x)] - Exp[2] ExpIntegralEi[2 (-1 + x)]</t>
+  </si>
+  <si>
+    <t>-E^2 ExpIntegralEi[2(-1 + x)] + E^4 ExpIntegralEi[2(-2 + x)]</t>
+  </si>
+  <si>
+    <t>-E^2 ExpIntegralEi[2 (-1 + x)] + E^4 ExpIntegralEi[2 (-2 + x)]</t>
+  </si>
+  <si>
+    <t>-E^2 ExpIntegralEi[2 (x - 1)] + E^4 ExpIntegralEi[2 (x - 2)]</t>
+  </si>
+  <si>
+    <t>-E^2 ExpIntegralEi[2 (x -1)] + E^4 ExpIntegralEi[2 (x -2)]</t>
   </si>
   <si>
     <t>t^3/Sqrt[4 + t^3]</t>
@@ -2517,6 +2877,30 @@
   4 + t^3])</t>
   </si>
   <si>
+    <t>(2 Sqrt[4 + t^3] (5 t - ( (-4 + t^3)^(2/3) t Hypergeometric2F1[1/2, 5/3, 8/3, -((t^3)/4)])/ (4 + t^3)^(2/3) )))/15</t>
+  </si>
+  <si>
+    <t>2/3 Sqrt[4 + t^3] Hypergeometric2F1[1/3, 1/2, 4/3, -t^3/4]</t>
+  </si>
+  <si>
+    <t>2/(3) t Sqrt[4 + t^3] - 4/(9) t^(3/2) Sqrt[4 + t^3] Hypergeometric2F1[1/3, 1/2, 4/3, -t^3/4]</t>
+  </si>
+  <si>
+    <t>2/3 Sqrt[4 + t^3] t - 4/(3^(1/3)) Hypergeometric2F1[-1/2, 1/3,4/3, -t^3/4]</t>
+  </si>
+  <si>
+    <t>(2 t Sqrt[4 + t^3])/3 - (8 Hypergeometric2F1[1/3, 1/2, 4/3, -t^3/4])/(9 3^(1/3))</t>
+  </si>
+  <si>
+    <t>2/3 t Sqrt[4 + t^3] Hypergeometric2F1[-1/3, 1/2, 2/3, -t^3/4]</t>
+  </si>
+  <si>
+    <t>(2 t Sqrt[4 + t^3])/3 - (2 4^(2/3) Hypergeometric2F1[3/2, 2/3, 5/3, -t^3/4])/3</t>
+  </si>
+  <si>
+    <t>(2 t^2/(9 Sqrt[3])) (Sqrt[4 + t^3] Hypergeometric2F1[1/2, 2/3, 5/3, -t^3/4] - (2^(2/3) 3^(1/6)/3) Hypergeometric2F1[1/3, 1/2, 4/3, -t^3/4])</t>
+  </si>
+  <si>
     <t>1/Sqrt[1 + t^3]</t>
   </si>
   <si>
@@ -2526,22 +2910,73 @@
  1/4) Sqrt[(1 + t)/(1 + Sqrt[3] + t)^2] Sqrt[1 + t^3])</t>
   </si>
   <si>
+    <t>(2 t Hypergeometric2F1[1/2, 1/3, 4/3, -t^3] )/(3 Sqrt[1 + t^3])</t>
+  </si>
+  <si>
+    <t>Hypergeometric2F1[1/2, 1/3, 4/3, -t^3] t</t>
+  </si>
+  <si>
+    <t>t Hypergeometric2F1[1/2, 1/3, 4/3, -t^3]</t>
+  </si>
+  <si>
+    <t>t Hypergeometric2F1[1/3, 1/2, 4/3, -t^3]</t>
+  </si>
+  <si>
+    <t>2/Sqrt[3] Hypergeometric2F1[1/3, 1/2, 4/3, -t^3]</t>
+  </si>
+  <si>
     <t>1/(Cos[x] + Sin[x])</t>
   </si>
   <si>
     <t>-(ArcTanh[(Cos[x] - Sin[x])/Sqrt[2]]/Sqrt[2])</t>
   </si>
   <si>
+    <t>(1/Sqrt[2]) Log[Abs[Tan[(x + Pi/4)/2]]]</t>
+  </si>
+  <si>
+    <t>-2^(-1/2) Log[Cot[(x + π/4)/2]]</t>
+  </si>
+  <si>
+    <t>(1/Sqrt[2])*Log[Abs[Tan[x/2 + π/8]]]</t>
+  </si>
+  <si>
+    <t>1/Sqrt[2] Log[Abs[Tan[(x + \[Pi]/4)/2]]]</t>
+  </si>
+  <si>
+    <t>(1/Sqrt[2]) Log[Abs[Tan[x/2 + π/8]]]</t>
+  </si>
+  <si>
+    <t>1/Sqrt[2] Log[Tan[(x + Pi/4)/2]]</t>
+  </si>
+  <si>
+    <t>1/Sqrt[2] Log[Abs[Tan[x/2 + Pi/8]]]</t>
+  </si>
+  <si>
+    <t>(1/Sqrt[2]) Log[Abs[Tan[(x/2) + Pi/8]]]</t>
+  </si>
+  <si>
     <t>x/(4 - x^2 + Sqrt[4 - x^2])</t>
   </si>
   <si>
     <t>-Log[1 + Sqrt[4 - x^2]]</t>
   </si>
   <si>
+    <t>-Log[Sqrt[4 - x^2] + 1]</t>
+  </si>
+  <si>
     <t>Sqrt[(a + x)/(a - x)]</t>
   </si>
   <si>
     <t>-((a - x) Sqrt[(a + x)/(a - x)]) + 2 a ArcTan[Sqrt[(a + x)/(a - x)]]</t>
+  </si>
+  <si>
+    <t>a ArcSin[x/a] - Sqrt[a^2 - x^2]</t>
+  </si>
+  <si>
+    <t>2 a ArcTan[Sqrt[(a + x)/(a - x)]] - Sqrt[a^2 - x^2]</t>
+  </si>
+  <si>
+    <t>Sqrt[a^2 - x^2] - 2 a ArcTan[Sqrt[(a + x)/(a - x)]]</t>
   </si>
   <si>
     <t>Sqrt[(b - x) (-a + x)]</t>
@@ -2551,10 +2986,41 @@
  1/8 (a - b)^2 ArcTan[(a + b - 2 x)/(2 Sqrt[-a b + (a + b) x - x^2])]</t>
   </si>
   <si>
+    <t>( (2x - a - b)/4 )*Sqrt[(b - x)(-a + x)] + ( (a - b)^2 / 8 )*ArcSin[ (2x - a - b)/(a - b) ]</t>
+  </si>
+  <si>
+    <t>((x - (a + b)/2)/2)*Sqrt[(b - x) (-a + x)] + ((a - b)^2)/8*ArcSin[(2x - a - b)/(a - b)]</t>
+  </si>
+  <si>
+    <t>1/2 Sqrt[(b - x) (-a + x)] (1/2 (-a - b) + x) + 
+ 1/8 (a - b)^2 ArcSin[(-a - b + 2 x)/(a - b)]</t>
+  </si>
+  <si>
+    <t>(b - a)^2/8 * ArcSin[(2x - a - b)/(b - a)] + ( (x - (a + b)/2)/4 )*Sqrt[(b - a)^2 -4*(x - (a + b)/2)^2]</t>
+  </si>
+  <si>
+    <t>(Sqrt[(b - x) (-a + x)] (x - (a + b)/2))/2 + 1/8 (b - a)^2 ArcSin[(2 x - a - b)/(b - a)]</t>
+  </si>
+  <si>
+    <t>(1/2)*( (x - (a + b)/2)*Sqrt[((b - a)/2)^2 - (x - (a + b)/2)^2] + ((b - a)/2)^2*ArcSin[(2x - a - b)/(b - a) ] )</t>
+  </si>
+  <si>
     <t>1/Sqrt[(b - x) (-a + x)]</t>
   </si>
   <si>
     <t>-ArcTan[(a + b - 2 x)/(2 Sqrt[-a b + (a + b) x - x^2])]</t>
+  </si>
+  <si>
+    <t>ArcSin[(2x - a - b)/(a - b)]</t>
+  </si>
+  <si>
+    <t>ArcSin[(2x - a - b)/(b - a)]</t>
+  </si>
+  <si>
+    <t>ArcSin[(2 x - a - b)/(b - a)]</t>
+  </si>
+  <si>
+    <t>ArcSin[(-a - b + 2 x)/(-a + b)]</t>
   </si>
   <si>
     <t>1/(5 - Cos[x] + 2 Sin[x])</t>
@@ -2565,10 +3031,55 @@
   5 + 2 Sqrt[5] - Cos[x] + 2 Sin[x])]/Sqrt[5]</t>
   </si>
   <si>
+    <t>(1/Sqrt[5])*ArcTan[ (3 Tan[x/2] + 1)/Sqrt[5] ]</t>
+  </si>
+  <si>
+    <t>1/Sqrt[5] ArcTan[(3 Tan[x/2] + 1)/Sqrt[5]]</t>
+  </si>
+  <si>
+    <t>(1/Sqrt[5])*ArcTan[(3*Tan[x/2] + 1)/Sqrt[5]]</t>
+  </si>
+  <si>
+    <t>1/Sqrt[5] * ArcTan[(3 Tan[x/2] + 1)/Sqrt[5]]</t>
+  </si>
+  <si>
+    <t>ArcTan[(1 + 3 Tan[x/2])/Sqrt[5]] / Sqrt[5]</t>
+  </si>
+  <si>
+    <t>(ArcTan[(3 Tan[x/2] + 1)/Sqrt[5]])/Sqrt[5]</t>
+  </si>
+  <si>
+    <t>ArcTan[(1 + 3 Tan[x/2])/Sqrt[5]]/Sqrt[5]</t>
+  </si>
+  <si>
     <t>1/(1 + a Cos[x])</t>
   </si>
   <si>
     <t>(2 ArcTan[(Sqrt[1 - a] Tan[x/2])/Sqrt[1 + a]])/Sqrt[1 - a^2]</t>
+  </si>
+  <si>
+    <t>(2/Sqrt[1 - a^2])*ArcTan[ Sqrt[(1 - a)/(1 + a)]*Tan[x/2] ]</t>
+  </si>
+  <si>
+    <t>2/Sqrt[1 - a^2] ArcTan[ Tan[x/2] Sqrt[(1 - a)/(1 + a)] ]</t>
+  </si>
+  <si>
+    <t>(2/Sqrt[1 - a^2])*ArcTan[Sqrt[(1 - a)/(1 + a)] Tan[x/2]]</t>
+  </si>
+  <si>
+    <t>2/Sqrt[1 - a^2] * ArcTan[Sqrt[(1 - a)/(1 + a)] * Tan[x/2]]</t>
+  </si>
+  <si>
+    <t>(2/Sqrt[1 - a^2]) * ArcTan[Tan[x/2] Sqrt[(1 - a)/(1 + a)]]</t>
+  </si>
+  <si>
+    <t>(2 ArcTan[Tan[x/2] Sqrt[(1 - a)/(1 + a)]])/Sqrt[1 - a^2]</t>
+  </si>
+  <si>
+    <t>(2/Sqrt[1 - a^2])*ArcTan[ Tan[x/2] * Sqrt[(1 - a)/(1 + a)] ]</t>
+  </si>
+  <si>
+    <t>2 ArcTan[Tan[x/2] Sqrt[(1 - a)/(1 + a)]] / Sqrt[1 - a^2]</t>
   </si>
   <si>
     <t>1/(1 + 2 Cos[x])</t>
@@ -2578,10 +3089,49 @@
  Log[Sqrt[3] Cos[x/2] + Sin[x/2]]/Sqrt[3]</t>
   </si>
   <si>
+    <t>(1/Sqrt[3])*Log[ (Sqrt[3] + Tan[x/2])/(Sqrt[3] - Tan[x/2]) ]</t>
+  </si>
+  <si>
+    <t>1/Sqrt[3] Log[(Sqrt[3] + Tan[x/2])/(Sqrt[3] - Tan[x/2])]</t>
+  </si>
+  <si>
+    <t>(1/Sqrt[3])*Log[(Sqrt[3] + Tan[x/2])/(Sqrt[3] - Tan[x/2])]</t>
+  </si>
+  <si>
+    <t>1/Sqrt[3] * Log[(Sqrt[3] + Tan[x/2])/(Sqrt[3] - Tan[x/2])]</t>
+  </si>
+  <si>
+    <t>(1/Sqrt[3]) * Log[(Sqrt[3] + Tan[x/2])/(Sqrt[3] - Tan[x/2])]</t>
+  </si>
+  <si>
+    <t>(2 ArcTan[Tan[x/2]/Sqrt[3]])/Sqrt[3]</t>
+  </si>
+  <si>
+    <t>(2/Sqrt[3])*ArcTanh[Tan[x/2]/Sqrt[3]]</t>
+  </si>
+  <si>
+    <t>(1/Sqrt[3]) Log[(Sqrt[3] + Tan[x/2])/(Sqrt[3] - Tan[x/2])]</t>
+  </si>
+  <si>
     <t>Cos[2 x] Sqrt[4 - Sin[2 x]]</t>
   </si>
   <si>
     <t>-(1/3) (4 - Sin[2 x])^(3/2)</t>
+  </si>
+  <si>
+    <t>-(1/3)(4 - Sin[2x])^(3/2)</t>
+  </si>
+  <si>
+    <t>-(4 - Sin[2x])^(3/2)/3</t>
+  </si>
+  <si>
+    <t>-(1/3)*(4 - Sin[2x])^(3/2)</t>
+  </si>
+  <si>
+    <t>-1/3 (4 - Sin[2 x])^(3/2)</t>
+  </si>
+  <si>
+    <t>-(1/3)*(4 - Sin[2 x])^(3/2)</t>
   </si>
   <si>
     <t>1/Sqrt[a^2 - x^2]</t>
@@ -3344,7 +3894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3372,13 +3922,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3734,8 +4278,8 @@
   <sheetPr/>
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3817,7 +4361,7 @@
       <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3880,7 +4424,7 @@
       <c r="T2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3943,7 +4487,7 @@
       <c r="T3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4006,7 +4550,7 @@
       <c r="T4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4069,7 +4613,7 @@
       <c r="T5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4116,7 +4660,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
-      <c r="U6" s="11">
+      <c r="U6" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4163,7 +4707,7 @@
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="11">
+      <c r="U7" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4210,7 +4754,7 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
-      <c r="U8" s="11">
+      <c r="U8" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4257,7 +4801,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
-      <c r="U9" s="11">
+      <c r="U9" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4304,7 +4848,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
-      <c r="U10" s="11">
+      <c r="U10" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4351,7 +4895,7 @@
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
-      <c r="U11" s="11">
+      <c r="U11" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4398,7 +4942,7 @@
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
-      <c r="U12" s="11">
+      <c r="U12" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4445,7 +4989,7 @@
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
-      <c r="U13" s="11">
+      <c r="U13" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4492,7 +5036,7 @@
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
-      <c r="U14" s="11">
+      <c r="U14" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4539,7 +5083,7 @@
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
-      <c r="U15" s="11">
+      <c r="U15" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4586,7 +5130,7 @@
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
-      <c r="U16" s="11">
+      <c r="U16" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4633,7 +5177,7 @@
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
-      <c r="U17" s="11">
+      <c r="U17" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4680,7 +5224,7 @@
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
-      <c r="U18" s="11">
+      <c r="U18" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4727,7 +5271,7 @@
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
-      <c r="U19" s="11">
+      <c r="U19" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4774,7 +5318,7 @@
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
-      <c r="U20" s="11">
+      <c r="U20" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4821,7 +5365,7 @@
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
-      <c r="U21" s="11">
+      <c r="U21" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4868,7 +5412,7 @@
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="11">
+      <c r="U22" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4915,7 +5459,7 @@
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
-      <c r="U23" s="11">
+      <c r="U23" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4962,7 +5506,7 @@
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
-      <c r="U24" s="11">
+      <c r="U24" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5009,7 +5553,7 @@
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
-      <c r="U25" s="11">
+      <c r="U25" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5056,7 +5600,7 @@
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
-      <c r="U26" s="11">
+      <c r="U26" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5103,7 +5647,7 @@
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
-      <c r="U27" s="11">
+      <c r="U27" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5150,7 +5694,7 @@
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
-      <c r="U28" s="11">
+      <c r="U28" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5197,7 +5741,7 @@
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
-      <c r="U29" s="11">
+      <c r="U29" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5244,7 +5788,7 @@
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
-      <c r="U30" s="11">
+      <c r="U30" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5291,7 +5835,7 @@
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
-      <c r="U31" s="11">
+      <c r="U31" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5338,7 +5882,7 @@
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
-      <c r="U32" s="11">
+      <c r="U32" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5385,7 +5929,7 @@
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
-      <c r="U33" s="11">
+      <c r="U33" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5432,7 +5976,7 @@
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
-      <c r="U34" s="11">
+      <c r="U34" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5479,7 +6023,7 @@
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
-      <c r="U35" s="11">
+      <c r="U35" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5526,7 +6070,7 @@
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
-      <c r="U36" s="11">
+      <c r="U36" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5573,7 +6117,7 @@
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
-      <c r="U37" s="11">
+      <c r="U37" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5620,7 +6164,7 @@
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
-      <c r="U38" s="11">
+      <c r="U38" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5667,7 +6211,7 @@
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
-      <c r="U39" s="11">
+      <c r="U39" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5681,14 +6225,30 @@
       <c r="C40" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
+      <c r="D40" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>288</v>
+      </c>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
@@ -5698,7 +6258,7 @@
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
       <c r="T40" s="6"/>
-      <c r="U40" s="11">
+      <c r="U40" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5707,19 +6267,35 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
+        <v>290</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>294</v>
+      </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
@@ -5729,7 +6305,7 @@
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
-      <c r="U41" s="11">
+      <c r="U41" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5738,19 +6314,35 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
+        <v>296</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>304</v>
+      </c>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
@@ -5760,7 +6352,7 @@
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
-      <c r="U42" s="11">
+      <c r="U42" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5769,19 +6361,35 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
+        <v>306</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>307</v>
+      </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
@@ -5791,7 +6399,7 @@
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
-      <c r="U43" s="11">
+      <c r="U43" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5800,19 +6408,35 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
+        <v>311</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
@@ -5822,7 +6446,7 @@
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
-      <c r="U44" s="11">
+      <c r="U44" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5831,19 +6455,35 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
+        <v>317</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
@@ -5853,7 +6493,7 @@
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
-      <c r="U45" s="11">
+      <c r="U45" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5862,19 +6502,35 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+        <v>322</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>323</v>
+      </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
@@ -5884,7 +6540,7 @@
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
-      <c r="U46" s="11">
+      <c r="U46" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5893,19 +6549,35 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
+        <v>329</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>332</v>
+      </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
@@ -5915,7 +6587,7 @@
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
-      <c r="U47" s="11">
+      <c r="U47" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5924,19 +6596,35 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
+        <v>338</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>339</v>
+      </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
@@ -5946,7 +6634,7 @@
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
-      <c r="U48" s="11">
+      <c r="U48" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5955,19 +6643,35 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
+        <v>343</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>346</v>
+      </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
@@ -5977,7 +6681,7 @@
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
-      <c r="U49" s="11">
+      <c r="U49" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5986,19 +6690,35 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
+        <v>351</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>354</v>
+      </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
@@ -6008,7 +6728,7 @@
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
-      <c r="U50" s="11">
+      <c r="U50" s="5">
         <v>2</v>
       </c>
     </row>
@@ -6017,19 +6737,35 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
+        <v>358</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>366</v>
+      </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
@@ -6039,7 +6775,7 @@
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
-      <c r="U51" s="11">
+      <c r="U51" s="5">
         <v>2</v>
       </c>
     </row>
@@ -6048,19 +6784,35 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>307</v>
+        <v>367</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
+        <v>368</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
@@ -6070,26 +6822,42 @@
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
-      <c r="U52" s="11"/>
+      <c r="U52" s="5"/>
     </row>
     <row r="53" ht="22.5" customHeight="1" spans="1:21">
       <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>309</v>
+        <v>371</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
+        <v>372</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>373</v>
+      </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
@@ -6099,26 +6867,42 @@
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
-      <c r="U53" s="11"/>
+      <c r="U53" s="5"/>
     </row>
     <row r="54" ht="22.5" customHeight="1" spans="1:21">
       <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>311</v>
+        <v>374</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
+        <v>375</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>377</v>
+      </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
@@ -6128,26 +6912,42 @@
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
       <c r="T54" s="6"/>
-      <c r="U54" s="11"/>
+      <c r="U54" s="5"/>
     </row>
     <row r="55" ht="22.5" customHeight="1" spans="1:21">
       <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>313</v>
+        <v>380</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
+        <v>381</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>334</v>
+      </c>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
@@ -6157,26 +6957,42 @@
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
       <c r="T55" s="6"/>
-      <c r="U55" s="11"/>
+      <c r="U55" s="5"/>
     </row>
     <row r="56" ht="22.5" customHeight="1" spans="1:21">
       <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>315</v>
+        <v>387</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
+        <v>388</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>388</v>
+      </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
@@ -6186,26 +7002,42 @@
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
       <c r="T56" s="6"/>
-      <c r="U56" s="11"/>
+      <c r="U56" s="5"/>
     </row>
     <row r="57" ht="22.5" customHeight="1" spans="1:21">
       <c r="A57" s="5">
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>317</v>
+        <v>389</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
+        <v>390</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>390</v>
+      </c>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
@@ -6215,26 +7047,40 @@
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
-      <c r="U57" s="11"/>
+      <c r="U57" s="5"/>
     </row>
     <row r="58" ht="22.5" customHeight="1" spans="1:21">
       <c r="A58" s="5">
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>319</v>
+        <v>391</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+        <v>392</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>395</v>
+      </c>
       <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
+      <c r="I58" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>394</v>
+      </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
@@ -6244,26 +7090,42 @@
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
       <c r="T58" s="6"/>
-      <c r="U58" s="11"/>
+      <c r="U58" s="5"/>
     </row>
     <row r="59" ht="22.5" customHeight="1" spans="1:21">
       <c r="A59" s="5">
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>321</v>
+        <v>396</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
+        <v>397</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>400</v>
+      </c>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
@@ -6273,26 +7135,42 @@
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
       <c r="T59" s="6"/>
-      <c r="U59" s="11"/>
+      <c r="U59" s="5"/>
     </row>
     <row r="60" ht="22.5" customHeight="1" spans="1:21">
       <c r="A60" s="5">
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>323</v>
+        <v>401</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
+        <v>402</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>408</v>
+      </c>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
@@ -6302,26 +7180,42 @@
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
       <c r="T60" s="6"/>
-      <c r="U60" s="11"/>
+      <c r="U60" s="5"/>
     </row>
     <row r="61" ht="22.5" customHeight="1" spans="1:21">
       <c r="A61" s="5">
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>325</v>
+        <v>409</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
+        <v>410</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>415</v>
+      </c>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
@@ -6331,26 +7225,42 @@
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
       <c r="T61" s="6"/>
-      <c r="U61" s="11"/>
+      <c r="U61" s="5"/>
     </row>
     <row r="62" ht="22.5" customHeight="1" spans="1:21">
       <c r="A62" s="5">
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
+        <v>417</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>419</v>
+      </c>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
@@ -6360,939 +7270,1163 @@
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
       <c r="T62" s="6"/>
-      <c r="U62" s="11"/>
+      <c r="U62" s="5"/>
     </row>
     <row r="63" ht="22.5" customHeight="1" spans="1:21">
       <c r="A63" s="5">
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>329</v>
+        <v>422</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="9"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
-      <c r="U63" s="11"/>
+        <v>423</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="5"/>
     </row>
     <row r="64" ht="22.5" customHeight="1" spans="1:21">
       <c r="A64" s="5">
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="9"/>
-      <c r="S64" s="9"/>
-      <c r="T64" s="9"/>
-      <c r="U64" s="11"/>
+        <v>428</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="5"/>
     </row>
     <row r="65" ht="22.5" customHeight="1" spans="1:21">
       <c r="A65" s="5">
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="11"/>
+        <v>433</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="5"/>
     </row>
     <row r="66" ht="138" customHeight="1" spans="1:21">
       <c r="A66" s="5">
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>335</v>
+        <v>439</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="11"/>
+        <v>440</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="5"/>
     </row>
     <row r="67" ht="72" customHeight="1" spans="1:21">
       <c r="A67" s="5">
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>337</v>
+        <v>449</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="11"/>
+        <v>450</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="5"/>
     </row>
     <row r="68" ht="22.5" customHeight="1" spans="1:21">
       <c r="A68" s="5">
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>339</v>
+        <v>456</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="11"/>
+        <v>457</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="5"/>
     </row>
     <row r="69" ht="22.5" customHeight="1" spans="1:21">
       <c r="A69" s="5">
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>341</v>
+        <v>466</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="11"/>
+        <v>467</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="5"/>
     </row>
     <row r="70" ht="22.5" customHeight="1" spans="1:21">
       <c r="A70" s="5">
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>343</v>
+        <v>469</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="11"/>
+        <v>470</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="5"/>
     </row>
     <row r="71" ht="55.5" customHeight="1" spans="1:21">
       <c r="A71" s="5">
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>345</v>
+        <v>474</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="11"/>
+        <v>475</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="5"/>
     </row>
     <row r="72" ht="22.5" customHeight="1" spans="1:21">
       <c r="A72" s="5">
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>347</v>
+        <v>482</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
-      <c r="U72" s="11"/>
+        <v>483</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="5"/>
     </row>
     <row r="73" ht="55.5" customHeight="1" spans="1:21">
       <c r="A73" s="5">
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>349</v>
+        <v>488</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
-      <c r="U73" s="11"/>
+        <v>489</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="5"/>
     </row>
     <row r="74" ht="22.5" customHeight="1" spans="1:21">
       <c r="A74" s="5">
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>351</v>
+        <v>497</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="11"/>
+        <v>498</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="5"/>
     </row>
     <row r="75" ht="39" customHeight="1" spans="1:21">
       <c r="A75" s="5">
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>353</v>
+        <v>507</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="9"/>
-      <c r="S75" s="9"/>
-      <c r="T75" s="9"/>
-      <c r="U75" s="11"/>
+        <v>508</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="5"/>
     </row>
     <row r="76" ht="22.5" customHeight="1" spans="1:21">
       <c r="A76" s="5">
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>355</v>
+        <v>517</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
-      <c r="U76" s="11"/>
+        <v>518</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="5"/>
     </row>
     <row r="77" ht="22.5" customHeight="1" spans="1:21">
       <c r="A77" s="5">
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>357</v>
+        <v>524</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9"/>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9"/>
-      <c r="U77" s="11"/>
+        <v>525</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="5"/>
     </row>
     <row r="78" ht="22.5" customHeight="1" spans="1:21">
       <c r="A78" s="5">
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>359</v>
+        <v>526</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="9"/>
-      <c r="S78" s="9"/>
-      <c r="T78" s="9"/>
-      <c r="U78" s="11"/>
+        <v>527</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="5"/>
     </row>
     <row r="79" ht="22.5" customHeight="1" spans="1:21">
       <c r="A79" s="5">
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>361</v>
+        <v>528</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="9"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="9"/>
-      <c r="U79" s="11"/>
+        <v>529</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="5"/>
     </row>
     <row r="80" ht="39" customHeight="1" spans="1:21">
       <c r="A80" s="5">
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>363</v>
+        <v>530</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="9"/>
-      <c r="O80" s="9"/>
-      <c r="P80" s="9"/>
-      <c r="Q80" s="9"/>
-      <c r="R80" s="9"/>
-      <c r="S80" s="9"/>
-      <c r="T80" s="9"/>
-      <c r="U80" s="11"/>
+        <v>531</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="5"/>
     </row>
     <row r="81" ht="22.5" customHeight="1" spans="1:21">
       <c r="A81" s="5">
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>365</v>
+        <v>532</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="9"/>
-      <c r="O81" s="9"/>
-      <c r="P81" s="9"/>
-      <c r="Q81" s="9"/>
-      <c r="R81" s="9"/>
-      <c r="S81" s="9"/>
-      <c r="T81" s="9"/>
-      <c r="U81" s="11"/>
+        <v>533</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="5"/>
     </row>
     <row r="82" ht="22.5" customHeight="1" spans="1:21">
       <c r="A82" s="5">
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>367</v>
+        <v>534</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="9"/>
-      <c r="N82" s="9"/>
-      <c r="O82" s="9"/>
-      <c r="P82" s="9"/>
-      <c r="Q82" s="9"/>
-      <c r="R82" s="9"/>
-      <c r="S82" s="9"/>
-      <c r="T82" s="9"/>
-      <c r="U82" s="11"/>
+        <v>535</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="5"/>
     </row>
     <row r="83" ht="22.5" customHeight="1" spans="1:21">
       <c r="A83" s="5">
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>369</v>
+        <v>536</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
-      <c r="O83" s="9"/>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="9"/>
-      <c r="R83" s="9"/>
-      <c r="S83" s="9"/>
-      <c r="T83" s="9"/>
-      <c r="U83" s="11"/>
+        <v>537</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="5"/>
     </row>
     <row r="84" ht="22.5" customHeight="1" spans="1:21">
       <c r="A84" s="5">
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>371</v>
+        <v>538</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="9"/>
-      <c r="O84" s="9"/>
-      <c r="P84" s="9"/>
-      <c r="Q84" s="9"/>
-      <c r="R84" s="9"/>
-      <c r="S84" s="9"/>
-      <c r="T84" s="9"/>
-      <c r="U84" s="11"/>
+        <v>539</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="5"/>
     </row>
     <row r="85" ht="22.5" customHeight="1" spans="1:21">
       <c r="A85" s="5">
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>373</v>
+        <v>540</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="9"/>
-      <c r="P85" s="9"/>
-      <c r="Q85" s="9"/>
-      <c r="R85" s="9"/>
-      <c r="S85" s="9"/>
-      <c r="T85" s="9"/>
-      <c r="U85" s="11"/>
+        <v>541</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="5"/>
     </row>
     <row r="86" ht="22.5" customHeight="1" spans="1:21">
       <c r="A86" s="5">
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="9"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="9"/>
-      <c r="R86" s="9"/>
-      <c r="S86" s="9"/>
-      <c r="T86" s="9"/>
-      <c r="U86" s="11"/>
+        <v>543</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="5"/>
     </row>
     <row r="87" ht="22.5" customHeight="1" spans="1:21">
       <c r="A87" s="5">
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>377</v>
+        <v>544</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
-      <c r="N87" s="9"/>
-      <c r="O87" s="9"/>
-      <c r="P87" s="9"/>
-      <c r="Q87" s="9"/>
-      <c r="R87" s="9"/>
-      <c r="S87" s="9"/>
-      <c r="T87" s="9"/>
-      <c r="U87" s="11"/>
+        <v>545</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="5"/>
     </row>
     <row r="88" ht="22.5" customHeight="1" spans="1:21">
       <c r="A88" s="5">
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>379</v>
+        <v>546</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="9"/>
-      <c r="N88" s="9"/>
-      <c r="O88" s="9"/>
-      <c r="P88" s="9"/>
-      <c r="Q88" s="9"/>
-      <c r="R88" s="9"/>
-      <c r="S88" s="9"/>
-      <c r="T88" s="9"/>
-      <c r="U88" s="11"/>
+        <v>547</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="5"/>
     </row>
     <row r="89" ht="22.5" customHeight="1" spans="1:21">
       <c r="A89" s="5">
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>381</v>
+        <v>548</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
-      <c r="O89" s="9"/>
-      <c r="P89" s="9"/>
-      <c r="Q89" s="9"/>
-      <c r="R89" s="9"/>
-      <c r="S89" s="9"/>
-      <c r="T89" s="9"/>
-      <c r="U89" s="11"/>
+        <v>549</v>
+      </c>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="5"/>
     </row>
     <row r="90" ht="22.5" customHeight="1" spans="1:21">
       <c r="A90" s="5">
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>383</v>
+        <v>550</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="9"/>
-      <c r="N90" s="9"/>
-      <c r="O90" s="9"/>
-      <c r="P90" s="9"/>
-      <c r="Q90" s="9"/>
-      <c r="R90" s="9"/>
-      <c r="S90" s="9"/>
-      <c r="T90" s="9"/>
-      <c r="U90" s="11"/>
+        <v>551</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="5"/>
     </row>
     <row r="91" ht="22.5" customHeight="1" spans="1:21">
       <c r="A91" s="5">
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>385</v>
+        <v>552</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="9"/>
-      <c r="O91" s="9"/>
-      <c r="P91" s="9"/>
-      <c r="Q91" s="9"/>
-      <c r="R91" s="9"/>
-      <c r="S91" s="9"/>
-      <c r="T91" s="9"/>
-      <c r="U91" s="11"/>
+        <v>553</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="5"/>
     </row>
     <row r="92" ht="55.5" customHeight="1" spans="1:21">
       <c r="A92" s="5">
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>387</v>
+        <v>554</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9"/>
-      <c r="O92" s="9"/>
-      <c r="P92" s="9"/>
-      <c r="Q92" s="9"/>
-      <c r="R92" s="9"/>
-      <c r="S92" s="9"/>
-      <c r="T92" s="9"/>
-      <c r="U92" s="11"/>
+        <v>555</v>
+      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="5"/>
     </row>
     <row r="93" ht="22.5" customHeight="1" spans="1:21">
       <c r="A93" s="5">
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="9"/>
-      <c r="O93" s="9"/>
-      <c r="P93" s="9"/>
-      <c r="Q93" s="9"/>
-      <c r="R93" s="9"/>
-      <c r="S93" s="9"/>
-      <c r="T93" s="9"/>
-      <c r="U93" s="11"/>
+        <v>557</v>
+      </c>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="5"/>
     </row>
     <row r="94" ht="22.5" customHeight="1" spans="1:21">
       <c r="A94" s="5">
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>391</v>
+        <v>558</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="9"/>
-      <c r="O94" s="9"/>
-      <c r="P94" s="9"/>
-      <c r="Q94" s="9"/>
-      <c r="R94" s="9"/>
-      <c r="S94" s="9"/>
-      <c r="T94" s="9"/>
-      <c r="U94" s="11"/>
+        <v>559</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="5"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="5"/>
-      <c r="C95" s="12"/>
+      <c r="C95" s="10"/>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="5"/>

--- a/测试大模型/qwq-32b/测试新.xlsx
+++ b/测试大模型/qwq-32b/测试新.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$102</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="641">
   <si>
     <t>题号</t>
   </si>
@@ -3140,78 +3153,258 @@
     <t>ArcTan[x/Sqrt[a^2 - x^2]]</t>
   </si>
   <si>
+    <t>ArcSin[x/a]</t>
+  </si>
+  <si>
     <t>1/Sqrt[1 - 2 x - x^2]</t>
   </si>
   <si>
     <t>ArcSin[(1 + x)/Sqrt[2]]</t>
   </si>
   <si>
+    <t>ArcSin[(x + 1)/Sqrt[2]]</t>
+  </si>
+  <si>
     <t>1/(a + b x^2)</t>
   </si>
   <si>
     <t>ArcTan[(Sqrt[b] x)/Sqrt[a]]/(Sqrt[a] Sqrt[b])</t>
   </si>
   <si>
+    <t>ArcTan[(Sqrt[b] x)/Sqrt[a]]/Sqrt[a b]</t>
+  </si>
+  <si>
+    <t>ArcTan[x Sqrt[b/a]] / Sqrt[a b]</t>
+  </si>
+  <si>
+    <t>1/Sqrt[a b] ArcTan[(x Sqrt[b])/Sqrt[a]]</t>
+  </si>
+  <si>
+    <t>ArcTan[(Sqrt[b] x)/Sqrt[a]] / Sqrt[a b]</t>
+  </si>
+  <si>
+    <t>(1/Sqrt[a b]) ArcTan[(Sqrt[b] x)/Sqrt[a]]</t>
+  </si>
+  <si>
+    <t>ArcTan[x Sqrt[b/a]] / Sqrt[a*b]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArcTan[(x Sqrt[b])/Sqrt[a]] / Sqrt[a b] </t>
+  </si>
+  <si>
+    <t>ArcTan[Sqrt[b/a] x]/Sqrt[a b]</t>
+  </si>
+  <si>
     <t>x ArcTan[x]^2</t>
   </si>
   <si>
     <t>-x ArcTan[x] + ArcTan[x]^2/2 + 1/2 x^2 ArcTan[x]^2 + 1/2 Log[1 + x^2]</t>
   </si>
   <si>
+    <t>(ArcTan[x]^2 (1 + x^2))/2 - x ArcTan[x] + (Log[1 + x^2])/2</t>
+  </si>
+  <si>
+    <t>((x^2/2 + 1/4) ArcTan[x]^2) - (x ArcTan[x])/2 + Log[1 + x^2]/4</t>
+  </si>
+  <si>
+    <t>( (x^2 + 1)/2 ) ArcTan[x]^2 - x ArcTan[x] + 1/2 Log[1 + x^2]</t>
+  </si>
+  <si>
+    <t>( (x^2 + 1)/2 * ArcTan[x]^2 ) - x ArcTan[x] + (1/2) Log[1 + x^2]</t>
+  </si>
+  <si>
+    <t>(1/2) (x^2 + 1) ArcTan[x]^2 - x ArcTan[x] + (1/2) Log[1 + x^2]</t>
+  </si>
+  <si>
+    <t>((x^2 + 1)/2)*ArcTan[x]^2 - x*ArcTan[x] + (1/2)*Log[1 + x^2]</t>
+  </si>
+  <si>
+    <t>1/2 ArcTan[x]^2 (1 + x^2) - x ArcTan[x] + (1/2) Log[1 + x^2]</t>
+  </si>
+  <si>
+    <t>1/2 (x^2 + 1) ArcTan[x]^2 - x ArcTan[x] + 1/2 Log[1 + x^2]</t>
+  </si>
+  <si>
     <t>ArcTan[Sqrt[x]]</t>
   </si>
   <si>
     <t>-Sqrt[x] + ArcTan[Sqrt[x]] + x ArcTan[Sqrt[x]]</t>
   </si>
   <si>
+    <t>(x + 1) ArcTan[Sqrt[x]] - Sqrt[x]</t>
+  </si>
+  <si>
+    <t>ArcTan[Sqrt[x]]*(x + 1) - Sqrt[x]</t>
+  </si>
+  <si>
+    <t>(x + 1)*ArcTan[Sqrt[x]] - Sqrt[x] + (1/2)*Log[1 + x]</t>
+  </si>
+  <si>
+    <t>((x + 1)/2) ArcTan[Sqrt[x]] - (1/2) Sqrt[x]</t>
+  </si>
+  <si>
     <t>x^2 ArcCos[x]</t>
   </si>
   <si>
     <t>-(1/3) Sqrt[1 - x^2] + 1/9 (1 - x^2)^(3/2) + 1/3 x^3 ArcCos[x]</t>
   </si>
   <si>
+    <t>(1/3) x^3 ArcCos[x] - Sqrt[1 - x^2]/3 + (1 - x^2)^(3/2)/9</t>
+  </si>
+  <si>
+    <t>ArcCos[x] x^3/3 - (x^2 + 2) Sqrt[1 - x^2]/9</t>
+  </si>
+  <si>
+    <t>(x^3/3) ArcCos[x] - (x^2 + 2)/9 Sqrt[1 - x^2]</t>
+  </si>
+  <si>
+    <t>x^3 ArcCos[x]/3 - ( (x^2 + 2) Sqrt[1 - x^2] )/9</t>
+  </si>
+  <si>
+    <t>(x^3/3) ArcCos[x] - ( (2 + x^2) Sqrt[1 - x^2] ) / 9</t>
+  </si>
+  <si>
+    <t>(x^3/3)*ArcCos[x] - ((x^2 + 2)*Sqrt[1 - x^2])/9</t>
+  </si>
+  <si>
+    <t>(1/3)x^3 ArcCos[x] - ( (x^2 + 2) Sqrt[1 - x^2] ) / 9</t>
+  </si>
+  <si>
+    <t>1/3 x^3 ArcCos[x] - (x^2 + 2) Sqrt[1 - x^2]/9</t>
+  </si>
+  <si>
     <t>Sqrt[1 - x^2]</t>
   </si>
   <si>
     <t>1/2 x Sqrt[1 - x^2] + ArcSin[x]/2</t>
   </si>
   <si>
+    <t>(x Sqrt[1 - x^2])/2 + 1/2 ArcSin[x]</t>
+  </si>
+  <si>
+    <t>(x Sqrt[1 - x^2] + ArcSin[x])/2</t>
+  </si>
+  <si>
+    <t>(1/2)(ArcSin[x] + x Sqrt[1 - x^2])</t>
+  </si>
+  <si>
+    <t>1/2 (x Sqrt[1 - x^2] + ArcSin[x])</t>
+  </si>
+  <si>
+    <t>1/2 (ArcSin[x] + x Sqrt[1 - x^2])</t>
+  </si>
+  <si>
     <t>(E^ArcTan[x] x)/(1 + x^2)^(3/2)</t>
   </si>
   <si>
     <t>-((E^ArcTan[x] (1 - x))/(2 Sqrt[1 + x^2]))</t>
   </si>
   <si>
+    <t>( (x-1) E^ArcTan[x] )/(2 Sqrt[1+x^2]) )</t>
+  </si>
+  <si>
+    <t>(E^ArcTan[x] (x - 1))/(2 Sqrt[1 + x^2])</t>
+  </si>
+  <si>
+    <t>(E^ArcTan[x])[-1 + x]/(2 Sqrt[1 + x^2])</t>
+  </si>
+  <si>
+    <t>(E^ArcTan[x] (x -1))/(2 Sqrt[1 +x^2])</t>
+  </si>
+  <si>
+    <t>E^ArcTan[x] (x - 1)/(2 Sqrt[1 + x^2])</t>
+  </si>
+  <si>
+    <t>E^(ArcTan[x])*(x - 1)/(2 Sqrt[1 + x^2])</t>
+  </si>
+  <si>
+    <t>E^ArcTan[x]*(x - 1)/(2 Sqrt[1 + x^2])</t>
+  </si>
+  <si>
     <t>ArcCot[x]</t>
   </si>
   <si>
     <t>x ArcCot[x] + 1/2 Log[1 + x^2]</t>
   </si>
   <si>
+    <t>x ArcCot[x] + (Log[1 + x^2])/2</t>
+  </si>
+  <si>
+    <t>x ArcCot[x] + (1/2) Log[1 + x^2]</t>
+  </si>
+  <si>
     <t>ArcSec[x]</t>
   </si>
   <si>
     <t>x ArcSec[x] - ArcTanh[Sqrt[1 - 1/x^2]]</t>
   </si>
   <si>
+    <t>x ArcSec[x] - Log[Abs[x + Sqrt[x^2 - 1]]]</t>
+  </si>
+  <si>
+    <t>x ArcSec[x] - Log[x + Sqrt[-1 + x^2]]</t>
+  </si>
+  <si>
+    <t>x ArcSec[x] - Log[x + Sqrt[x^2 - 1]]</t>
+  </si>
+  <si>
     <t>ArcCsc[x]</t>
   </si>
   <si>
     <t>x ArcCsc[x] + ArcTanh[Sqrt[1 - 1/x^2]]</t>
   </si>
   <si>
+    <t>x ArcCsc[x] + Log[Abs[x + Sqrt[x^2 - 1]]]</t>
+  </si>
+  <si>
+    <t>x ArcCsc[x] + Log[Abs[x + Sqrt[-1 + x^2]]]</t>
+  </si>
+  <si>
+    <t>x ArcCsc[x] + Log[x + Sqrt[-1 + x^2]]</t>
+  </si>
+  <si>
+    <t>x ArcCsc[x] + Log[x + Sqrt[x^2 - 1]]</t>
+  </si>
+  <si>
     <t>ArcSin[x]^2</t>
   </si>
   <si>
     <t>-2 x + 2 Sqrt[1 - x^2] ArcSin[x] + x ArcSin[x]^2</t>
   </si>
   <si>
+    <t>x ArcSin[x]^2 + 2 ArcSin[x] Sqrt[1 - x^2] - 2 x</t>
+  </si>
+  <si>
+    <t>x ArcSin[x]^2 + 2 Sqrt[1 - x^2] ArcSin[x] - 2 x</t>
+  </si>
+  <si>
+    <t>x ArcSin[x]^2 + 2 Sqrt[1 - x^2] ArcSin[x] - 2x</t>
+  </si>
+  <si>
     <t>ArcSin[x]/x^2</t>
   </si>
   <si>
     <t>-(ArcSin[x]/x) - ArcTanh[Sqrt[1 - x^2]]</t>
   </si>
   <si>
+    <t>ArcSin[x]/x + Log[(1 - Sqrt[1 - x^2])/x]</t>
+  </si>
+  <si>
+    <t>-ArcSin[x]/x + Log[x/(1 + Sqrt[1 - x^2])]</t>
+  </si>
+  <si>
+    <t>-(ArcSin[x]/x) + Log[x/(1 + Sqrt[1 - x^2])]</t>
+  </si>
+  <si>
+    <t>-(ArcSin[x]/x) - Log[(1 + Sqrt[1 - x^2])/x]</t>
+  </si>
+  <si>
+    <t>-ArcSin[x]/x + Log[x] - Log[1 + Sqrt[1 - x^2]]</t>
+  </si>
+  <si>
+    <t>-(ArcSin[x]/x) + Log[x] - Log[1 + Sqrt[1 - x^2]]</t>
+  </si>
+  <si>
     <t>ArcTan[Sqrt[x]]/(Sqrt[x] (1 + x))</t>
   </si>
   <si>
@@ -3222,6 +3415,24 @@
   </si>
   <si>
     <t>-(ArcTan[x]/2) - ArcTanh[x]/2</t>
+  </si>
+  <si>
+    <t>1/4 Log[Abs[(x - 1)/(x + 1)]] - 1/2 ArcTan[x]</t>
+  </si>
+  <si>
+    <t>1/4 Log[-1 + x] - 1/4 Log[1 + x] - 1/2 ArcTan[x]</t>
+  </si>
+  <si>
+    <t>(1/4) Log[Abs[(x - 1)/(x + 1)]] - (1/2) ArcTan[x]</t>
+  </si>
+  <si>
+    <t>1/4 Log[x - 1] - 1/4 Log[x + 1] - (1/2) ArcTan[x]</t>
+  </si>
+  <si>
+    <t>1/4 Log[(x - 1)/(x + 1)] - 1/2 ArcTan[x]</t>
+  </si>
+  <si>
+    <t>(1/4)*Log[Abs[(x - 1)/(x + 1)]] - (1/2)*ArcTan[x]</t>
   </si>
   <si>
     <t>1/(1 + x^4)</t>
@@ -3232,22 +3443,67 @@
  Log[1 + Sqrt[2] x + x^2]/(4 Sqrt[2])</t>
   </si>
   <si>
+    <t>(Sqrt[2]/8)*Log[(x^2 + Sqrt[2] x + 1)/(x^2 - Sqrt[2] x + 1)] + (1/(2 Sqrt[2]))*(ArcTan[Sqrt[2] x + 1] + ArcTan[Sqrt[2] x - 1])</t>
+  </si>
+  <si>
+    <t>1/(4 Sqrt[2]) * Log[(x^2 + Sqrt[2] x + 1)/(x^2 - Sqrt[2] x + 1)] + Sqrt[2]/4 (ArcTan[Sqrt[2] x +1] + ArcTan[Sqrt[2] x -1])</t>
+  </si>
+  <si>
+    <t>1/(4 Sqrt[2]) Log[(x^2 + Sqrt[2] x + 1)/(x^2 - Sqrt[2] x + 1)] + 1/(2 Sqrt[2]) (ArcTan[Sqrt[2] x + 1] + ArcTan[Sqrt[2] x - 1])</t>
+  </si>
+  <si>
+    <t>(1/(4 Sqrt[2])) Log[(x^2 + Sqrt[2] x + 1)/(x^2 - Sqrt[2] x + 1)] + (Sqrt[2]/4) (ArcTan[Sqrt[2] x + 1] + ArcTan[Sqrt[2] x - 1])</t>
+  </si>
+  <si>
+    <t>-(1/(4 Sqrt[2])) Log[1 - Sqrt[2] x + x^2] + 1/(4 Sqrt[2]) Log[1 + Sqrt[2] x + x^2] + (1/4)(ArcTan[1 + Sqrt[2] x] + ArcTan[-1 + Sqrt[2] x])</t>
+  </si>
+  <si>
+    <t>1/(4 Sqrt[2]) Log[(x^2 + Sqrt[2] x + 1)/(x^2 - Sqrt[2] x + 1)] + Sqrt[2]/4 (ArcTan[Sqrt[2] x + 1] + ArcTan[Sqrt[2] x - 1])</t>
+  </si>
+  <si>
+    <t>(1/(4 Sqrt[2])) * Log[(x^2 + Sqrt[2] x + 1)/(x^2 - Sqrt[2] x + 1)] + (Sqrt[2]/4)*(ArcTan[Sqrt[2] x + 1] + ArcTan[Sqrt[2] x - 1])</t>
+  </si>
+  <si>
+    <t>(Sqrt[2]/8)*Log[(x^2 + Sqrt[2]x + 1)/(x^2 - Sqrt[2]x + 1)] + (Sqrt[2]/4)*(ArcTan[Sqrt[2]x + 1] + ArcTan[Sqrt[2]x - 1])</t>
+  </si>
+  <si>
     <t>x^2/(2 + 2 x + x^2)^2</t>
   </si>
   <si>
     <t>-((x (2 + x))/(2 (2 + 2 x + x^2))) + ArcTan[1 + x]</t>
   </si>
   <si>
+    <t>ArcTan[x + 1] + 1/(x^2 + 2 x + 2)</t>
+  </si>
+  <si>
+    <t>ArcTan[1 + x] + 1/(2 + 2 x + x^2)</t>
+  </si>
+  <si>
+    <t>ArcTan[x + 1] + 1/(x^2 + 2x + 2)</t>
+  </si>
+  <si>
+    <t>ArcTan[1 + x] + 1/((1 + x)^2 + 1)</t>
+  </si>
+  <si>
     <t>1/(b^2 Cos[x]^2 + a^2 Sin[x]^2)</t>
   </si>
   <si>
     <t>ArcTan[(a Tan[x])/b]/(a b)</t>
+  </si>
+  <si>
+    <t>(1/(a b)) ArcTan[(a Tan[x])/b]</t>
+  </si>
+  <si>
+    <t>1/(a b) ArcTan[(a Tan[x])/b]</t>
+  </si>
+  <si>
+    <t>(ArcTan[(a Tan[x])/b])/(a b)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -3288,34 +3544,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -3329,14 +3557,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3376,6 +3596,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3426,7 +3661,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3453,55 +3709,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3519,31 +3733,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3567,6 +3769,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3579,7 +3793,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3603,7 +3841,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3627,6 +3877,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3644,21 +3900,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3691,6 +3932,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3749,148 +4005,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3931,52 +4187,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -4278,26 +4534,26 @@
   <sheetPr/>
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="C84" workbookViewId="0">
+      <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.675" customWidth="1"/>
-    <col min="2" max="2" width="45.175" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5083333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.0083333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.5083333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.5083333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.0083333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.5083333333333" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.0083333333333" style="2" customWidth="1"/>
-    <col min="11" max="11" width="21.3416666666667" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.5083333333333" style="2" customWidth="1"/>
-    <col min="13" max="20" width="9.675" style="2" customWidth="1"/>
-    <col min="21" max="21" width="8.675" customWidth="1"/>
+    <col min="1" max="1" width="8.67592592592593" customWidth="1"/>
+    <col min="2" max="2" width="45.1759259259259" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.6296296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5092592592593" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.0092592592593" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.5092592592593" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.5092592592593" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.0092592592593" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.5092592592593" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.0092592592593" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.3425925925926" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.5092592592593" style="2" customWidth="1"/>
+    <col min="13" max="20" width="9.67592592592593" style="2" customWidth="1"/>
+    <col min="21" max="21" width="8.67592592592593" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:21">
@@ -7912,14 +8168,30 @@
       <c r="C77" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
+      <c r="D77" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>526</v>
+      </c>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
@@ -7936,19 +8208,35 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
+        <v>528</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>529</v>
+      </c>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
@@ -7965,19 +8253,35 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
+        <v>531</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>539</v>
+      </c>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
@@ -7994,19 +8298,35 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
+        <v>541</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>549</v>
+      </c>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
@@ -8023,19 +8343,35 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
+        <v>551</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>555</v>
+      </c>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
@@ -8052,19 +8388,35 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
+        <v>557</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>565</v>
+      </c>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
@@ -8081,19 +8433,35 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>536</v>
+        <v>566</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
+        <v>567</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
@@ -8110,19 +8478,35 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
+        <v>574</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>581</v>
+      </c>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
@@ -8139,19 +8523,35 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>540</v>
+        <v>582</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
+        <v>583</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>585</v>
+      </c>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
@@ -8168,19 +8568,35 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>542</v>
+        <v>586</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
+        <v>587</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>590</v>
+      </c>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
@@ -8197,19 +8613,35 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>544</v>
+        <v>591</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
+        <v>592</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>596</v>
+      </c>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
@@ -8226,19 +8658,35 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>546</v>
+        <v>597</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
+        <v>598</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
@@ -8255,19 +8703,35 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>548</v>
+        <v>602</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
+        <v>603</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>609</v>
+      </c>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
@@ -8284,19 +8748,35 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>550</v>
+        <v>610</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
+        <v>611</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>611</v>
+      </c>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
@@ -8313,19 +8793,35 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>552</v>
+        <v>612</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
+        <v>613</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>619</v>
+      </c>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
@@ -8342,19 +8838,35 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
+        <v>621</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>629</v>
+      </c>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
@@ -8371,19 +8883,35 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>556</v>
+        <v>630</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
+        <v>631</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>634</v>
+      </c>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
@@ -8400,19 +8928,35 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>558</v>
+        <v>636</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
+        <v>637</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>640</v>
+      </c>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
@@ -8450,7 +8994,7 @@
       <c r="A102" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B102">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B1:B102" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8468,7 +9012,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8485,7 +9029,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
